--- a/Data/N10_P20-100_TV10(1)/RSF40/RSF_resultsDB.xlsx
+++ b/Data/N10_P20-100_TV10(1)/RSF40/RSF_resultsDB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1131">
   <si>
     <t xml:space="preserve">dataset</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">0.96745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.908449999999997</t>
+    <t xml:space="preserve">0.908449999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.74358333333333</t>
@@ -53,25 +53,25 @@
     <t xml:space="preserve">0.854666666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.707233333333332</t>
+    <t xml:space="preserve">0.707233333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.971283333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907949999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741433333333331</t>
+    <t xml:space="preserve">0.907949999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74143333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.95495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897216666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.742666666666664</t>
+    <t xml:space="preserve">0.897216666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.742666666666663</t>
   </si>
   <si>
     <t xml:space="preserve">0.9165</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">0.93845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886416666666664</t>
+    <t xml:space="preserve">0.886416666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.736099999999997</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">0.93295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855549999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.652833333333333</t>
+    <t xml:space="preserve">0.855549999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.652833333333332</t>
   </si>
   <si>
     <t xml:space="preserve">V2</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">0.851754385964912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765956558061822</t>
+    <t xml:space="preserve">0.765956558061823</t>
   </si>
   <si>
     <t xml:space="preserve">0.574436090225564</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.694708333333334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.532041666666667</t>
+    <t xml:space="preserve">0.532041666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.969783333333333</t>
@@ -230,13 +230,13 @@
     <t xml:space="preserve">0.896166666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741633333333331</t>
+    <t xml:space="preserve">0.74163333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.9185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582200000000001</t>
+    <t xml:space="preserve">0.5822</t>
   </si>
   <si>
     <t xml:space="preserve">0.448733333333335</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">0.93545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882766666666664</t>
+    <t xml:space="preserve">0.882766666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.732833333333331</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">0.939783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.662966666666666</t>
+    <t xml:space="preserve">0.662966666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.93095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853749999999997</t>
+    <t xml:space="preserve">0.853749999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.650849999999999</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">0.892866666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781866666666664</t>
+    <t xml:space="preserve">0.781866666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.617833333333333</t>
@@ -296,19 +296,19 @@
     <t xml:space="preserve">0.863566666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728799999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586500000000001</t>
+    <t xml:space="preserve">0.728799999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5865</t>
   </si>
   <si>
     <t xml:space="preserve">0.873983333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779733333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619166666666667</t>
+    <t xml:space="preserve">0.779733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619166666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.8357</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">0.59565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.825116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726666666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.574750000000001</t>
+    <t xml:space="preserve">0.825116666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726666666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57475</t>
   </si>
   <si>
     <t xml:space="preserve">0.840783333333333</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">0.886783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773166666666664</t>
+    <t xml:space="preserve">0.773166666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.614033333333333</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.9427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.854516666666664</t>
+    <t xml:space="preserve">0.854516666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.664883333333332</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">0.853566666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729849999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576433333333334</t>
+    <t xml:space="preserve">0.729849999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576433333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.884033333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756799999999998</t>
+    <t xml:space="preserve">0.756799999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.599</t>
@@ -386,16 +386,16 @@
     <t xml:space="preserve">0.92295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.818266666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62815</t>
+    <t xml:space="preserve">0.818266666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.628149999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.8417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.751449999999998</t>
+    <t xml:space="preserve">0.751449999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.600716666666667</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">0.88805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762799999999998</t>
+    <t xml:space="preserve">0.762799999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.597433333333333</t>
@@ -413,25 +413,25 @@
     <t xml:space="preserve">0.882616666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813733333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656333333333333</t>
+    <t xml:space="preserve">0.813733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656333333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.9407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850666666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671316666666666</t>
+    <t xml:space="preserve">0.850666666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671316666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.861733333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769049999999998</t>
+    <t xml:space="preserve">0.769049999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.608533333333333</t>
@@ -449,16 +449,16 @@
     <t xml:space="preserve">0.863816666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746099999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583050000000001</t>
+    <t xml:space="preserve">0.746099999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58305</t>
   </si>
   <si>
     <t xml:space="preserve">0.873383333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.747766666666665</t>
+    <t xml:space="preserve">0.747766666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.579566666666667</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">0.957033333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.855816666666664</t>
+    <t xml:space="preserve">0.855816666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.695583333333331</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">0.8752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793166666666664</t>
+    <t xml:space="preserve">0.793166666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.626233333333333</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">0.8947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785033333333331</t>
+    <t xml:space="preserve">0.785033333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.627083333333333</t>
@@ -503,16 +503,16 @@
     <t xml:space="preserve">0.8377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750633333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597183333333334</t>
+    <t xml:space="preserve">0.750633333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597183333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.8922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801316666666664</t>
+    <t xml:space="preserve">0.801316666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.641583333333333</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">0.790499999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.615016666666667</t>
+    <t xml:space="preserve">0.615016666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.901283333333333</t>
@@ -542,40 +542,40 @@
     <t xml:space="preserve">0.811099999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62745</t>
+    <t xml:space="preserve">0.627449999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.87795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.784349999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.623116666666667</t>
+    <t xml:space="preserve">0.784349999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.623116666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.92115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641016666666666</t>
+    <t xml:space="preserve">0.812133333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641016666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.917366666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809816666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6377</t>
+    <t xml:space="preserve">0.809816666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637699999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.76365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.673899999999999</t>
+    <t xml:space="preserve">0.6739</t>
   </si>
   <si>
     <t xml:space="preserve">0.523583333333335</t>
@@ -584,28 +584,28 @@
     <t xml:space="preserve">0.8562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.714799999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573266666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885866666666666</t>
+    <t xml:space="preserve">0.714799999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573266666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885866666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.793149999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633433333333333</t>
+    <t xml:space="preserve">0.633433333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.9208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824733333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667233333333333</t>
+    <t xml:space="preserve">0.824733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667233333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.90645</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">0.91245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.807516666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639383333333333</t>
+    <t xml:space="preserve">0.807516666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639383333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.954233333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831766666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668616666666666</t>
+    <t xml:space="preserve">0.831766666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668616666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.92565</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812799999999997</t>
+    <t xml:space="preserve">0.812799999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.651199999999999</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">0.889116666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756299999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607866666666667</t>
+    <t xml:space="preserve">0.756299999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.607866666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.88715</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">0.809116666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.633733333333333</t>
+    <t xml:space="preserve">0.633733333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.94445</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">0.872733333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.744749999999998</t>
+    <t xml:space="preserve">0.744749999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.579633333333334</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">0.819233333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.720849999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580150000000001</t>
+    <t xml:space="preserve">0.720849999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58015</t>
   </si>
   <si>
     <t xml:space="preserve">0.905783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.800983333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631916666666667</t>
+    <t xml:space="preserve">0.800983333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631916666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.84195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.764333333333332</t>
+    <t xml:space="preserve">0.764333333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.58885</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">0.675583333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896616666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782599999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615866666666667</t>
+    <t xml:space="preserve">0.896616666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782599999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615866666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.917483333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.764183333333331</t>
+    <t xml:space="preserve">0.764183333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.600216666666667</t>
@@ -746,34 +746,34 @@
     <t xml:space="preserve">0.885783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733549999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.594050000000001</t>
+    <t xml:space="preserve">0.733549999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59405</t>
   </si>
   <si>
     <t xml:space="preserve">0.877283333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748883333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591283333333334</t>
+    <t xml:space="preserve">0.748883333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591283333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.908566666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802516666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636266666666667</t>
+    <t xml:space="preserve">0.802516666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636266666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.8632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767883333333331</t>
+    <t xml:space="preserve">0.767883333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.60905</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">0.860283333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.764449999999998</t>
+    <t xml:space="preserve">0.764449999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.5851</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">0.807599999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.630933333333333</t>
+    <t xml:space="preserve">0.630933333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.92365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817816666666664</t>
+    <t xml:space="preserve">0.817816666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.644849999999999</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">0.911616666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799666666666664</t>
+    <t xml:space="preserve">0.799666666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.616483333333333</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">0.926783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832966666666664</t>
+    <t xml:space="preserve">0.832966666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.658449999999999</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">0.9247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812716666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656383333333333</t>
+    <t xml:space="preserve">0.812716666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656383333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.86295</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">0.61135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805266666666664</t>
+    <t xml:space="preserve">0.805266666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.629966666666666</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">0.94345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839599999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651533333333333</t>
+    <t xml:space="preserve">0.839599999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651533333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.812283333333333</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">0.901483333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775349999999998</t>
+    <t xml:space="preserve">0.775349999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.589366666666667</t>
@@ -878,25 +878,25 @@
     <t xml:space="preserve">0.908816666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802483333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628166666666667</t>
+    <t xml:space="preserve">0.802483333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.628166666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.9062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830866666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.649383333333333</t>
+    <t xml:space="preserve">0.830866666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.649383333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.899866666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757849999999998</t>
+    <t xml:space="preserve">0.757849999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.574633333333334</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">0.889783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781549999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61155</t>
+    <t xml:space="preserve">0.781549999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.611549999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.899316666666667</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.942783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820916666666664</t>
+    <t xml:space="preserve">0.820916666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.656249999999999</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">0.960483333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837399999999997</t>
+    <t xml:space="preserve">0.837399999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.672416666666665</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">0.85095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.763299999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608266666666667</t>
+    <t xml:space="preserve">0.763299999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608266666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.89595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833066666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.666816666666666</t>
+    <t xml:space="preserve">0.833066666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.666816666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.907533333333333</t>
@@ -968,2155 +968,2134 @@
     <t xml:space="preserve">0.86695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787766666666665</t>
+    <t xml:space="preserve">0.787766666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615799999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782483333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.594683333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879866666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732549999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580616666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716666666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735549999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573333333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.944733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807799999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645683333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.770983333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872616666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774483333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.610333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.738949999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.567400000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.689083333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542900000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774199999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606683333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927533333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.794316666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633199999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867533333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763033333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.607133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818316666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.692966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.523250000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648149999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935283333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858649999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664966666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858616666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.728449999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571033333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823766666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.643816666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850566666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.718516666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.561716666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.838916666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.569133333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750033333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.607466666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753216666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90818333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750466666666663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85153333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.711549999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962516666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72298333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872749999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71543333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531983333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414233333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.741266666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87673333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83238333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640199999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655916666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P40_N10_TV10(1)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921840659340659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818818681318683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597481684981685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827538185085355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670170709793352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500808625336927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91859410430839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789455782312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646258503401361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85843621399177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744814814814816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.537078189300412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947555555555556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978902953586498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763628691983122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870338983050847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786561743341406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599838579499597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906848184818482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776938943894391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849639423076923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668910256410257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504607371794872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866065705128205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716386217948719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555649038461538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.888699999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724266666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87358333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716599999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534683333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.416516666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.494466666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.314866666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88788333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735616666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87223333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.607833333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640316666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656833333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.876233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744549999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859566666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.684899999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.516983333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732099999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861766666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752616666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580983333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.588033333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709383333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.552766666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.843233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686266666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.530200000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733583333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.574566666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.712066666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.572416666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84598333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656899999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858433333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.713549999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.562283333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751283333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817049999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624216666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.752249999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.791133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626716666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84883333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.661533333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856766666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740133333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.594483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849966666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675399999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.532950000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.725899999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551033333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.749216666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.841016666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669649999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776483333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.604933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.762749999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622716666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.933433333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642916666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.739849999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592433333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.881683333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776599999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617299999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659116666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.513133333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907566666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773316666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.588783333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.588633333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765883333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.609016666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797966666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619983333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.922233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805066666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638666666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.783316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676299999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522266666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697966666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.560416666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.793233333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627866666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804866666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651083333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681649999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784766666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804883333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645399999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928183333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808899999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641933333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.780566666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804116666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.628416666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949433333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651383333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855266666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.702833333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538350000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685283333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.549700000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.711099999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579366666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911183333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.785666666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.611966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775633333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595466666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830199999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648433333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750483333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583633333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.918383333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754466666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693883333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.554016666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726883333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.565716666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910883333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789216666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621849999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754716666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.736733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570166666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797849999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803883333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627533333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834849999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656366666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.807899999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641233333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.753933333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.613916666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769816666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.598933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82398333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.842233333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.735733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.575666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.750499999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577866666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.915316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795599999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.618366666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804783333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626516666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.749633333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577366666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894566666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.778283333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786816666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612649999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799883333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647766666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.814766666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.642099999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795299999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636866666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795433333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.633616666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788783333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602116666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.884483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788933333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.605716666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764316666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.570716666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720166666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.563700000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.717766666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.734733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.573766666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771333333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.605633333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925683333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.745299999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555350000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765349999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592516666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892016666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796333333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625283333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.705166666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536700000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669399999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525216666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746633333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756916666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743266666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697533333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520283333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.936183333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820999999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837866666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641033333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733816666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.581183333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813249999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.696683333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.541150000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.701966666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.550000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.858766666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.734249999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.572516666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963033333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904383333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744199999999996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945866666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877783333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964433333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899149999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727466666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901249999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74438333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925083333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553250000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.410366666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500616666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.426533333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.945533333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.891616666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74468333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951116666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874083333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.594933333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957649999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877299999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668133333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865416666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665399999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P40_N10_TV10(1)3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917478731631864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.828267594740914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.614230471771075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855942806076854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73212689901698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.516085790884718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913502109704641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797468354430381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653502109704641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909113924050633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.797848101265824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583417721518987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953612479474549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.689449917898194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957244655581948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.772723673792558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.869681742043551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.783417085427137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602177554438861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90393634840871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771817420435512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900391644908616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746475195822456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.563577023498694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.721250000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.551916666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896649999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724299999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.902749999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74638333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555916666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.413866666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501316666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431733333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892583333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74623333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950116666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595516666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.875799999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665799999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941116666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.863916666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662233333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.775416666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868883333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688866666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522183333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744099999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.590583333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761283333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.592266666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751649999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.602533333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716899999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564166666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686083333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.527500000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751483333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583366666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.845383333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719216666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.577633333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836716666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635849999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882766666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.751366666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.587666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.779566666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825149999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637799999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851366666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.768683333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.608166666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903083333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769116666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593816666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822683333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653333333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940266666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857449999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668399999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.741049999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596533333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.886383333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.749099999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585133333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743383333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571100000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859183333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681866666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787483333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627816666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890466666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.779616666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.6158</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782483333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.594683333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879866666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732549999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580616666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716666666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863816666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735549999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573333333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.944733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807799999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645683333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786733333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873066666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.770983333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872616666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774483333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.610333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.738949999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.567400000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818783333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689083333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542900000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774199999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606683333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927533333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.794316666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867533333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763033333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607133333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.692966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523250000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648149999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935283333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858649999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858616666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.728449999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571033333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931816666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823766666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850566666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.718516666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.561716666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838916666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.569133333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750033333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607466666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753216666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608783333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908183333333329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750466666666663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85153333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.711549999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962516666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88783333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722983333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872749999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715433333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.531983333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414233333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493066666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889349999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741266666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87673333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83238333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640199999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856349999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655916666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P40_N10_TV10(1)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921840659340659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818818681318683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597481684981685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827538185085355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670170709793352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500808625336927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91859410430839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789455782312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646258503401361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85843621399177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744814814814816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.537078189300412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947555555555555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978902953586498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763628691983122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870338983050847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786561743341406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599838579499596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906848184818482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776938943894391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849639423076923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668910256410258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504607371794872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866065705128205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716386217948719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555649038461539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888699999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724266666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87358333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716599999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534683333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.416516666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.494466666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.314866666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88788333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735616666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87223333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607833333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640316666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857349999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656833333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744549999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859566666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.684899999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.516983333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732099999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.861766666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752616666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580983333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835066666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716966666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.588033333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709383333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.552766666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686266666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530200000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733583333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.574566666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.712066666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.572416666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84598333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656899999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858433333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713549999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.562283333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751283333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817049999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624216666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.752249999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.791133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626716666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84883333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.661533333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856766666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740133333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.594483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675399999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.532950000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865316666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.725899999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551033333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.749216666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586483333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.841016666666663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669649999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776483333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.762749999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622716666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.933433333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642916666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739849999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592433333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.881683333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776599999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.513133333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907566666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.773316666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.588783333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.588633333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.765883333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.609016666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915816666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797966666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.619983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.922233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.805066666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638666666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.783316666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676299999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522266666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697966666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.560416666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79323333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627866666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.804866666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651083333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83513333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681649999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784766666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.804883333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645399999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928183333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808899999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641933333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.780566666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.804116666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628416666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949433333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835349999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651383333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855266666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.702833333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538350000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.685283333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549700000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.711099999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.579366666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911183333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785666666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.611966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775633333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595466666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830199999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648433333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750483333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583633333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.918383333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754466666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693883333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.554016666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726883333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.565716666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910883333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789216666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.754716666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.853733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.736733333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.570166666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797849999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.803883333333331</t>
+    <t xml:space="preserve">0.937016666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.837249999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.638149999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850266666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760583333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813266666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645749999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.509466666666669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927616666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788766666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786516666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.615716666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927883333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810516666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927633333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.806216666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789216666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.679166666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.514783333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.873716666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.715066666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.567416666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911266666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655783333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929566666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835299999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667833333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859033333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697616666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805783333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.629016666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831716666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659616666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932516666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823616666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656133333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.793666666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.618966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795183333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621049999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.844083333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.665983333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727783333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555316666666668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693033333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.547833333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.726866666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.588800000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816116666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.621366666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870116666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774883333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.584216666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963683333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870916666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676466666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776616666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930766666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764483333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.609483333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894283333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731549999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.567450000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.882216666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740649999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.571833333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789349999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616966666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883966666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782899999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596333333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866216666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748083333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580833333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.910716666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816433333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.624416666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811349999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.628066666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903216666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777949999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606433333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932883333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.831316666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.639916666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.937933333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830849999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648733333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890866666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.784966666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622283333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796883333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.627533333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788133333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834849999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656366666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.807899999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641233333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753933333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.613916666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769816666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.598933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823983333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628149999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.842233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735733333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.575666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750499999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577866666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.915316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795599999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618366666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.908233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80478333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626516666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.749633333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577366666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894566666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.778283333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786816666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79988333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.647766666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948316666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814766666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642099999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795299999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636866666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795433333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633616666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788783333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788933333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.605716666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764316666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.570716666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720166666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.563700000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717766666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.574800000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.734733333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.573766666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771333333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.605633333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925683333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745299999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555350000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.765349999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592516666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892016666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796333333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.625283333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705166666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536700000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.669399999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525216666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746633333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587816666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756916666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743266666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602783333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697533333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520283333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.936183333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820999999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.651533333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837866666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641033333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.871316666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.733816666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.581183333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813249999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639999999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.696683333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.541150000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.701966666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.550000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.858766666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.734249999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.572516666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743266666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963033333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904383333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744199999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945866666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877783333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724349999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964433333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899149999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727466666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901249999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744383333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.925083333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.553250000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.410366666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500616666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.426533333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945533333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.891616666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744683333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.874083333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.594933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877299999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668133333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865416666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665399999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P40_N10_TV10(1)3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917478731631864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828267594740914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.614230471771075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855942806076854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73212689901698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.516085790884719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913502109704641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797468354430381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653502109704642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.909113924050633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.797848101265824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583417721518987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953612479474549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689449917898194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957244655581948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772723673792558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.869681742043551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.783417085427137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602177554438861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90393634840871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.771817420435512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900391644908616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746475195822455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.563577023498694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.721250000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.551916666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896649999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724299999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902749999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746383333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555916666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.413866666666668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501316666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431733333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892583333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746233333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.950116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873583333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595516666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.875799999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665799999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863916666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662233333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775416666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.613399999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868883333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688866666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.522183333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744099999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.590583333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761283333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.592266666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751649999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602533333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716899999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564166666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686083333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.527500000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751483333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583366666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.845383333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719216666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577633333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836716666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.635849999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882766666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.751366666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.587666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.779566666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.613299999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825149999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637799999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851366666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.768683333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608166666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903083333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769116666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.822683333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653333333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940266666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.857449999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668399999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741049999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596533333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709733333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886383333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.749099999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.585133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743383333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859183333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681866666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787483333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890466666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.779616666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615799999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937016666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.837249999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638149999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850266666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760583333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604349999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813266666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645749999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657249999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.509466666666669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927616666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.804783333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892783333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788766666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786516666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.615716666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927883333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.810516666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.927633333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.806216666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789216666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.679166666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.514783333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873716666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.567416666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911266666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823766666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655783333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929566666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.835299999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667833333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859033333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697616666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.805783333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.629016666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831716666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659616666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932516666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823616666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.656133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.793666666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.618966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.795183333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.621049999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844083333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665983333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882766666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.727783333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555316666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693033333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.547833333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726866666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816116666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.621366666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870116666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774883333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.584216666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963683333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870916666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676466666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776616666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597649999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930766666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764483333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.609483333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894283333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.731549999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.567450000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.882216666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740649999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.571833333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789349999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616966666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883966666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782899999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866216666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748083333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580833333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.910716666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816433333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624416666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811349999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.903216666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.777949999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.606433333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932883333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831316666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.639916666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.937933333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.830849999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648733333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890866666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784966666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.622283333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.904783333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.796883333333332</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.952016666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.850083333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.667216666666666</t>
+    <t xml:space="preserve">0.667216666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.850216666666667</t>
@@ -3140,7 +3119,7 @@
     <t xml:space="preserve">0.932366666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816733333333332</t>
+    <t xml:space="preserve">0.816733333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.639349999999999</t>
@@ -3152,7 +3131,7 @@
     <t xml:space="preserve">0.825733333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634133333333333</t>
+    <t xml:space="preserve">0.634133333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.92405</t>
@@ -3167,7 +3146,7 @@
     <t xml:space="preserve">0.912116666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803599999999999</t>
+    <t xml:space="preserve">0.803599999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.633566666666666</t>
@@ -3182,7 +3161,7 @@
     <t xml:space="preserve">0.617033333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957966666666667</t>
+    <t xml:space="preserve">0.957966666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.832699999999998</t>
@@ -3203,25 +3182,25 @@
     <t xml:space="preserve">0.89305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806883333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648283333333333</t>
+    <t xml:space="preserve">0.806883333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648283333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.906866666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.832933333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.653616666666666</t>
+    <t xml:space="preserve">0.832933333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.653616666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.92095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804816666666665</t>
+    <t xml:space="preserve">0.804816666666664</t>
   </si>
   <si>
     <t xml:space="preserve">0.615283333333333</t>
@@ -3248,7 +3227,7 @@
     <t xml:space="preserve">0.892216666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.740849999999999</t>
+    <t xml:space="preserve">0.740849999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.566333333333334</t>
@@ -3275,25 +3254,25 @@
     <t xml:space="preserve">0.94395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792033333333332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6202</t>
+    <t xml:space="preserve">0.792033333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.620199999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.948683333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776716666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57895</t>
+    <t xml:space="preserve">0.776716666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578950000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.88905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765149999999999</t>
+    <t xml:space="preserve">0.765149999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.59145</t>
@@ -3320,10 +3299,10 @@
     <t xml:space="preserve">0.844383333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.705833333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.542333333333334</t>
+    <t xml:space="preserve">0.705833333333332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.542333333333335</t>
   </si>
   <si>
     <t xml:space="preserve">0.894716666666666</t>
@@ -3347,10 +3326,7 @@
     <t xml:space="preserve">0.877466666666667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754716666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608199999999999</t>
+    <t xml:space="preserve">0.6082</t>
   </si>
   <si>
     <t xml:space="preserve">0.843483333333333</t>
@@ -3365,10 +3341,10 @@
     <t xml:space="preserve">0.949933333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.852599999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675199999999999</t>
+    <t xml:space="preserve">0.852599999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.675199999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.939116666666666</t>
@@ -3386,7 +3362,7 @@
     <t xml:space="preserve">0.742749999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592616666666666</t>
+    <t xml:space="preserve">0.592616666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.934933333333333</t>
@@ -3395,7 +3371,7 @@
     <t xml:space="preserve">0.811016666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644716666666666</t>
+    <t xml:space="preserve">0.644716666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.859133333333333</t>
@@ -3404,7 +3380,7 @@
     <t xml:space="preserve">0.713916666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55525</t>
+    <t xml:space="preserve">0.555250000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.844483333333333</t>
@@ -3413,7 +3389,7 @@
     <t xml:space="preserve">0.720866666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5763</t>
+    <t xml:space="preserve">0.576300000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.874716666666666</t>
@@ -3422,7 +3398,7 @@
     <t xml:space="preserve">0.760666666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605933333333332</t>
+    <t xml:space="preserve">0.605933333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.87685</t>
@@ -3431,7 +3407,7 @@
     <t xml:space="preserve">0.752449999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.59475</t>
+    <t xml:space="preserve">0.594750000000001</t>
   </si>
 </sst>
 </file>
@@ -4125,16 +4101,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D22" t="s">
+        <v>761</v>
+      </c>
+      <c r="E22" t="s">
         <v>762</v>
-      </c>
-      <c r="C22" t="s">
-        <v>763</v>
-      </c>
-      <c r="D22" t="s">
-        <v>764</v>
-      </c>
-      <c r="E22" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4118,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C23" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D23" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24">
@@ -4159,16 +4135,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C24" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D24" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E24" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25">
@@ -4176,16 +4152,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D25" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E25" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26">
@@ -4193,16 +4169,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C26" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D26" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E26" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27">
@@ -4210,16 +4186,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C27" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D27" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E27" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28">
@@ -4227,16 +4203,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D28" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E28" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29">
@@ -4244,16 +4220,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C29" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D29" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E29" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30">
@@ -4261,16 +4237,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C30" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D30" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E30" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31">
@@ -4278,16 +4254,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E31" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -4600,142 +4576,142 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>789</v>
+      </c>
+      <c r="B22" t="s">
+        <v>790</v>
+      </c>
+      <c r="C22" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" t="s">
         <v>792</v>
-      </c>
-      <c r="B22" t="s">
-        <v>793</v>
-      </c>
-      <c r="C22" t="s">
-        <v>794</v>
-      </c>
-      <c r="D22" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B23" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C23" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D23" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B24" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C24" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D24" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B25" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C25" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D25" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B28" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C28" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D28" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B29" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B30" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C30" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D30" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B31" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C31" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -5048,142 +5024,142 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B22" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C22" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D22" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B23" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C23" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B24" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C24" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D24" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B25" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C25" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D25" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B26" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C26" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D26" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B27" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C27" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D27" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B28" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C28" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D28" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C29" t="s">
-        <v>835</v>
+        <v>448</v>
       </c>
       <c r="D29" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B30" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C30" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D30" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B31" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C31" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D31" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -7521,7 +7497,7 @@
         <v>658</v>
       </c>
       <c r="D166" t="s">
-        <v>659</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167">
@@ -7529,13 +7505,13 @@
         <v>416</v>
       </c>
       <c r="B167" t="s">
+        <v>659</v>
+      </c>
+      <c r="C167" t="s">
         <v>660</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>661</v>
-      </c>
-      <c r="D167" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="168">
@@ -7543,13 +7519,13 @@
         <v>416</v>
       </c>
       <c r="B168" t="s">
+        <v>662</v>
+      </c>
+      <c r="C168" t="s">
         <v>663</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>664</v>
-      </c>
-      <c r="D168" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="169">
@@ -7557,13 +7533,13 @@
         <v>416</v>
       </c>
       <c r="B169" t="s">
+        <v>665</v>
+      </c>
+      <c r="C169" t="s">
         <v>666</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>667</v>
-      </c>
-      <c r="D169" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="170">
@@ -7571,13 +7547,13 @@
         <v>416</v>
       </c>
       <c r="B170" t="s">
+        <v>668</v>
+      </c>
+      <c r="C170" t="s">
         <v>669</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>670</v>
-      </c>
-      <c r="D170" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="171">
@@ -7585,13 +7561,13 @@
         <v>416</v>
       </c>
       <c r="B171" t="s">
+        <v>671</v>
+      </c>
+      <c r="C171" t="s">
         <v>672</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>673</v>
-      </c>
-      <c r="D171" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="172">
@@ -7599,13 +7575,13 @@
         <v>416</v>
       </c>
       <c r="B172" t="s">
+        <v>674</v>
+      </c>
+      <c r="C172" t="s">
         <v>675</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>676</v>
-      </c>
-      <c r="D172" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="173">
@@ -7613,13 +7589,13 @@
         <v>416</v>
       </c>
       <c r="B173" t="s">
+        <v>677</v>
+      </c>
+      <c r="C173" t="s">
         <v>678</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>679</v>
-      </c>
-      <c r="D173" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="174">
@@ -7627,13 +7603,13 @@
         <v>416</v>
       </c>
       <c r="B174" t="s">
+        <v>680</v>
+      </c>
+      <c r="C174" t="s">
         <v>681</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>682</v>
-      </c>
-      <c r="D174" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="175">
@@ -7641,13 +7617,13 @@
         <v>416</v>
       </c>
       <c r="B175" t="s">
+        <v>683</v>
+      </c>
+      <c r="C175" t="s">
         <v>684</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>685</v>
-      </c>
-      <c r="D175" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="176">
@@ -7658,10 +7634,10 @@
         <v>615</v>
       </c>
       <c r="C176" t="s">
+        <v>686</v>
+      </c>
+      <c r="D176" t="s">
         <v>687</v>
-      </c>
-      <c r="D176" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="177">
@@ -7669,13 +7645,13 @@
         <v>416</v>
       </c>
       <c r="B177" t="s">
+        <v>688</v>
+      </c>
+      <c r="C177" t="s">
         <v>689</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>690</v>
-      </c>
-      <c r="D177" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="178">
@@ -7683,13 +7659,13 @@
         <v>416</v>
       </c>
       <c r="B178" t="s">
+        <v>691</v>
+      </c>
+      <c r="C178" t="s">
         <v>692</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>693</v>
-      </c>
-      <c r="D178" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="179">
@@ -7697,13 +7673,13 @@
         <v>416</v>
       </c>
       <c r="B179" t="s">
+        <v>694</v>
+      </c>
+      <c r="C179" t="s">
         <v>695</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>696</v>
-      </c>
-      <c r="D179" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="180">
@@ -7711,13 +7687,13 @@
         <v>416</v>
       </c>
       <c r="B180" t="s">
+        <v>697</v>
+      </c>
+      <c r="C180" t="s">
         <v>698</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>699</v>
-      </c>
-      <c r="D180" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="181">
@@ -7728,10 +7704,10 @@
         <v>624</v>
       </c>
       <c r="C181" t="s">
+        <v>700</v>
+      </c>
+      <c r="D181" t="s">
         <v>701</v>
-      </c>
-      <c r="D181" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="182">
@@ -7739,13 +7715,13 @@
         <v>416</v>
       </c>
       <c r="B182" t="s">
+        <v>702</v>
+      </c>
+      <c r="C182" t="s">
         <v>703</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>704</v>
-      </c>
-      <c r="D182" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="183">
@@ -7753,13 +7729,13 @@
         <v>416</v>
       </c>
       <c r="B183" t="s">
+        <v>705</v>
+      </c>
+      <c r="C183" t="s">
         <v>706</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>707</v>
-      </c>
-      <c r="D183" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="184">
@@ -7767,13 +7743,13 @@
         <v>416</v>
       </c>
       <c r="B184" t="s">
+        <v>708</v>
+      </c>
+      <c r="C184" t="s">
         <v>709</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>710</v>
-      </c>
-      <c r="D184" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="185">
@@ -7781,13 +7757,13 @@
         <v>416</v>
       </c>
       <c r="B185" t="s">
+        <v>711</v>
+      </c>
+      <c r="C185" t="s">
         <v>712</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>713</v>
-      </c>
-      <c r="D185" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="186">
@@ -7798,10 +7774,10 @@
         <v>535</v>
       </c>
       <c r="C186" t="s">
+        <v>714</v>
+      </c>
+      <c r="D186" t="s">
         <v>715</v>
-      </c>
-      <c r="D186" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="187">
@@ -7809,13 +7785,13 @@
         <v>416</v>
       </c>
       <c r="B187" t="s">
+        <v>716</v>
+      </c>
+      <c r="C187" t="s">
         <v>717</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>718</v>
-      </c>
-      <c r="D187" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="188">
@@ -7823,13 +7799,13 @@
         <v>416</v>
       </c>
       <c r="B188" t="s">
+        <v>719</v>
+      </c>
+      <c r="C188" t="s">
         <v>720</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>721</v>
-      </c>
-      <c r="D188" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="189">
@@ -7837,13 +7813,13 @@
         <v>416</v>
       </c>
       <c r="B189" t="s">
+        <v>722</v>
+      </c>
+      <c r="C189" t="s">
         <v>723</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>724</v>
-      </c>
-      <c r="D189" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="190">
@@ -7851,13 +7827,13 @@
         <v>416</v>
       </c>
       <c r="B190" t="s">
+        <v>725</v>
+      </c>
+      <c r="C190" t="s">
         <v>726</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>727</v>
-      </c>
-      <c r="D190" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="191">
@@ -7865,13 +7841,13 @@
         <v>416</v>
       </c>
       <c r="B191" t="s">
+        <v>728</v>
+      </c>
+      <c r="C191" t="s">
         <v>729</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>730</v>
-      </c>
-      <c r="D191" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="192">
@@ -7879,13 +7855,13 @@
         <v>416</v>
       </c>
       <c r="B192" t="s">
+        <v>731</v>
+      </c>
+      <c r="C192" t="s">
         <v>732</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>733</v>
-      </c>
-      <c r="D192" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="193">
@@ -7893,13 +7869,13 @@
         <v>416</v>
       </c>
       <c r="B193" t="s">
+        <v>734</v>
+      </c>
+      <c r="C193" t="s">
         <v>735</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>736</v>
-      </c>
-      <c r="D193" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="194">
@@ -7907,13 +7883,13 @@
         <v>416</v>
       </c>
       <c r="B194" t="s">
+        <v>737</v>
+      </c>
+      <c r="C194" t="s">
         <v>738</v>
       </c>
-      <c r="C194" t="s">
-        <v>739</v>
-      </c>
       <c r="D194" t="s">
-        <v>740</v>
+        <v>279</v>
       </c>
     </row>
     <row r="195">
@@ -7921,13 +7897,13 @@
         <v>416</v>
       </c>
       <c r="B195" t="s">
+        <v>739</v>
+      </c>
+      <c r="C195" t="s">
+        <v>740</v>
+      </c>
+      <c r="D195" t="s">
         <v>741</v>
-      </c>
-      <c r="C195" t="s">
-        <v>742</v>
-      </c>
-      <c r="D195" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="196">
@@ -7935,13 +7911,13 @@
         <v>416</v>
       </c>
       <c r="B196" t="s">
+        <v>742</v>
+      </c>
+      <c r="C196" t="s">
+        <v>743</v>
+      </c>
+      <c r="D196" t="s">
         <v>744</v>
-      </c>
-      <c r="C196" t="s">
-        <v>745</v>
-      </c>
-      <c r="D196" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="197">
@@ -7949,13 +7925,13 @@
         <v>416</v>
       </c>
       <c r="B197" t="s">
+        <v>745</v>
+      </c>
+      <c r="C197" t="s">
+        <v>746</v>
+      </c>
+      <c r="D197" t="s">
         <v>747</v>
-      </c>
-      <c r="C197" t="s">
-        <v>748</v>
-      </c>
-      <c r="D197" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="198">
@@ -7963,13 +7939,13 @@
         <v>416</v>
       </c>
       <c r="B198" t="s">
+        <v>748</v>
+      </c>
+      <c r="C198" t="s">
+        <v>749</v>
+      </c>
+      <c r="D198" t="s">
         <v>750</v>
-      </c>
-      <c r="C198" t="s">
-        <v>751</v>
-      </c>
-      <c r="D198" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="199">
@@ -7977,13 +7953,13 @@
         <v>416</v>
       </c>
       <c r="B199" t="s">
+        <v>751</v>
+      </c>
+      <c r="C199" t="s">
+        <v>752</v>
+      </c>
+      <c r="D199" t="s">
         <v>753</v>
-      </c>
-      <c r="C199" t="s">
-        <v>754</v>
-      </c>
-      <c r="D199" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="200">
@@ -7991,13 +7967,13 @@
         <v>416</v>
       </c>
       <c r="B200" t="s">
+        <v>754</v>
+      </c>
+      <c r="C200" t="s">
+        <v>755</v>
+      </c>
+      <c r="D200" t="s">
         <v>756</v>
-      </c>
-      <c r="C200" t="s">
-        <v>757</v>
-      </c>
-      <c r="D200" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="201">
@@ -8005,472 +7981,472 @@
         <v>416</v>
       </c>
       <c r="B201" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C201" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="D201" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B202" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C202" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D202" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B203" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C203" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D203" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B204" t="s">
         <v>257</v>
       </c>
       <c r="C204" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D204" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B205" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C205" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D205" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B206" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C206" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D206" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B207" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C207" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D207" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B208" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C208" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D208" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B209" t="s">
         <v>128</v>
       </c>
       <c r="C209" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D209" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B210" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C210" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D210" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B211" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C211" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D211" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B212" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C212" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D212" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B213" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C213" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D213" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B214" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C214" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D214" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B215" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C215" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D215" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B216" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C216" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D216" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B217" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C217" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D217" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B218" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C218" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D218" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B219" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C219" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D219" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B220" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C220" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D220" t="s">
-        <v>897</v>
+        <v>713</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B221" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C221" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D221" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B222" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C222" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D222" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B223" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C223" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D223" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B224" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C224" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D224" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B225" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C225" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D225" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B226" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C226" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="D226" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B227" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C227" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="D227" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B228" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C228" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="D228" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B229" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C229" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D229" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B230" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C230" t="s">
-        <v>926</v>
+        <v>669</v>
       </c>
       <c r="D230" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B231" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C231" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D231" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B232" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C232" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D232" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B233" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C233" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D233" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B234" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C234" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D234" t="s">
         <v>262</v>
@@ -8478,940 +8454,940 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B235" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C235" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D235" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B236" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C236" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D236" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B237" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C237" t="s">
-        <v>946</v>
+        <v>371</v>
       </c>
       <c r="D237" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B238" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C238" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="D238" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B239" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C239" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="D239" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B240" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C240" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="D240" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B241" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="C241" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D241" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B242" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C242" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D242" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B243" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="C243" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="D243" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B244" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C244" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D244" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B245" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C245" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D245" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B246" t="s">
-        <v>972</v>
+        <v>867</v>
       </c>
       <c r="C246" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="D246" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B247" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="C247" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="D247" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B248" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C248" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="D248" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B249" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C249" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="D249" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B250" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="C250" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D250" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B251" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C251" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="D251" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B252" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="C252" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="D252" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B253" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C253" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D253" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B254" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C254" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D254" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B255" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="C255" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D255" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B256" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="C256" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="D256" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B257" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="C257" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D257" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B258" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C258" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D258" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B259" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C259" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="D259" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B260" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C260" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D260" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B261" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C261" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="D261" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B262" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C262" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D262" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B263" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C263" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="D263" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B264" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="C264" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D264" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B265" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="C265" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D265" t="s">
-        <v>641</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B266" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="C266" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D266" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B267" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="C267" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="D267" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B268" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C268" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="D268" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B269" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C269" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="D269" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B270" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="C270" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="D270" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B271" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="C271" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D271" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B272" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="C272" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="D272" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B273" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="C273" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="D273" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B274" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="C274" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="D274" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B275" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="C275" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="D275" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B276" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="C276" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="D276" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B277" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C277" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D277" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B278" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C278" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="D278" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B279" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="C279" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="D279" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B280" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="C280" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="D280" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B281" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C281" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="D281" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B282" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="C282" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D282" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B283" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="C283" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="D283" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B284" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="C284" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="D284" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B285" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="C285" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="D285" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B286" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="C286" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="D286" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B287" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C287" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="D287" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B288" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="C288" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="D288" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B289" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="C289" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="D289" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B290" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="C290" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="D290" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B291" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="C291" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="D291" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B292" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="C292" t="s">
-        <v>1110</v>
+        <v>631</v>
       </c>
       <c r="D292" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B293" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C293" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="D293" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B294" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C294" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D294" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B295" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="C295" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="D295" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B296" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="C296" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="D296" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B297" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="C297" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="D297" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B298" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C298" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="D298" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B299" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="C299" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="D299" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B300" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C300" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="D300" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B301" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="C301" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="D301" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>

--- a/Data/N10_P20-100_TV10(1)/RSF40/RSF_resultsDB.xlsx
+++ b/Data/N10_P20-100_TV10(1)/RSF40/RSF_resultsDB.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">0.9165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5802</t>
+    <t xml:space="preserve">0.580200000000001</t>
   </si>
   <si>
     <t xml:space="preserve">0.446283333333335</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">0.872833333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.600583333333333</t>
+    <t xml:space="preserve">0.600583333333334</t>
   </si>
   <si>
     <t xml:space="preserve">0.942116666666666</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">0.855549999999997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.652833333333333</t>
+    <t xml:space="preserve">0.652833333333332</t>
   </si>
   <si>
     <t xml:space="preserve">V2</t>
@@ -230,13 +230,13 @@
     <t xml:space="preserve">0.896166666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741633333333331</t>
+    <t xml:space="preserve">0.74163333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.9185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.582200000000001</t>
+    <t xml:space="preserve">0.5822</t>
   </si>
   <si>
     <t xml:space="preserve">0.448733333333335</t>
@@ -263,7 +263,10 @@
     <t xml:space="preserve">0.939783333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.662966666666666</t>
+    <t xml:space="preserve">0.87283333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662966666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.93095</t>
@@ -299,7 +302,7 @@
     <t xml:space="preserve">0.728799999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.586500000000001</t>
+    <t xml:space="preserve">0.5865</t>
   </si>
   <si>
     <t xml:space="preserve">0.873983333333333</t>
@@ -389,7 +392,7 @@
     <t xml:space="preserve">0.818266666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.62815</t>
+    <t xml:space="preserve">0.628149999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.8417</t>
@@ -410,13 +413,13 @@
     <t xml:space="preserve">0.597433333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882616666666667</t>
+    <t xml:space="preserve">0.882616666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.813733333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.656333333333333</t>
+    <t xml:space="preserve">0.656333333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.9407</t>
@@ -425,7 +428,7 @@
     <t xml:space="preserve">0.850666666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.671316666666666</t>
+    <t xml:space="preserve">0.671316666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.861733333333333</t>
@@ -503,7 +506,7 @@
     <t xml:space="preserve">0.8377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.750633333333332</t>
+    <t xml:space="preserve">0.750633333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.597183333333334</t>
@@ -587,7 +590,7 @@
     <t xml:space="preserve">0.714799999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.573266666666668</t>
+    <t xml:space="preserve">0.573266666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.885866666666666</t>
@@ -614,7 +617,7 @@
     <t xml:space="preserve">0.845983333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.689649999999998</t>
+    <t xml:space="preserve">0.689649999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.91245</t>
@@ -644,13 +647,13 @@
     <t xml:space="preserve">0.651199999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889116666666667</t>
+    <t xml:space="preserve">0.889116666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.756299999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607866666666667</t>
+    <t xml:space="preserve">0.607866666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.88715</t>
@@ -665,7 +668,7 @@
     <t xml:space="preserve">0.94445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842633333333331</t>
+    <t xml:space="preserve">0.84263333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.655549999999999</t>
@@ -704,7 +707,7 @@
     <t xml:space="preserve">0.800983333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.631916666666667</t>
+    <t xml:space="preserve">0.631916666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.84195</t>
@@ -728,7 +731,7 @@
     <t xml:space="preserve">0.896616666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782599999999997</t>
+    <t xml:space="preserve">0.782599999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.615866666666667</t>
@@ -749,7 +752,7 @@
     <t xml:space="preserve">0.733549999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.594050000000001</t>
+    <t xml:space="preserve">0.59405</t>
   </si>
   <si>
     <t xml:space="preserve">0.877283333333333</t>
@@ -830,7 +833,7 @@
     <t xml:space="preserve">0.812716666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.656383333333333</t>
+    <t xml:space="preserve">0.656383333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.86295</t>
@@ -881,7 +884,7 @@
     <t xml:space="preserve">0.802483333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.628166666666667</t>
+    <t xml:space="preserve">0.628166666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.9062</t>
@@ -908,7 +911,7 @@
     <t xml:space="preserve">0.781549999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.61155</t>
+    <t xml:space="preserve">0.611549999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.899316666666667</t>
@@ -1079,7 +1082,7 @@
     <t xml:space="preserve">0.794316666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6332</t>
+    <t xml:space="preserve">0.633199999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.867533333333333</t>
@@ -1088,7 +1091,7 @@
     <t xml:space="preserve">0.763033333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.607133333333334</t>
+    <t xml:space="preserve">0.607133333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.818316666666666</t>
@@ -1103,7 +1106,7 @@
     <t xml:space="preserve">0.933983333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820133333333331</t>
+    <t xml:space="preserve">0.82013333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.648149999999999</t>
@@ -1112,7 +1115,7 @@
     <t xml:space="preserve">0.935283333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.858649999999997</t>
+    <t xml:space="preserve">0.858649999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.664966666666666</t>
@@ -1136,7 +1139,7 @@
     <t xml:space="preserve">0.643816666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850566666666666</t>
+    <t xml:space="preserve">0.850566666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.718516666666665</t>
@@ -1169,7 +1172,7 @@
     <t xml:space="preserve">0.753216666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.608783333333334</t>
+    <t xml:space="preserve">0.608783333333333</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -1190,165 +1193,168 @@
     <t xml:space="preserve">0.85153333333333</t>
   </si>
   <si>
+    <t xml:space="preserve">0.711549999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962516666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88783333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722983333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940816666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872749999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.715433333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531983333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.414233333333335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.493066666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.889349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.741266666666664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951983333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87673333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.612333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932233333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83238333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640199999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940066666666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856349999999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655916666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P40_N10_TV10(1)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921840659340659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818818681318683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.597481684981685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827538185085355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.670170709793352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500808625336927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91859410430839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789455782312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646258503401361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85843621399177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.744814814814816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.537078189300412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947555555555555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.722133333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978902953586498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763628691983122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870338983050847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.786561743341406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.599838579499597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.906848184818482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.776938943894391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849639423076923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668910256410258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504607371794872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866065705128205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716386217948719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.555649038461539</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.711549999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962516666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88783333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722983333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940816666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872749999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715433333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.531983333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.414233333333335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.493066666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.889349999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.741266666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951983333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87673333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932233333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83238333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640199999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940066666666666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856349999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.655916666666665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P40_N10_TV10(1)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921840659340659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818818681318683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.597481684981685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.827538185085355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.670170709793352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500808625336927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91859410430839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789455782312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646258503401361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85843621399177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.744814814814816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.537078189300412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947555555555555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722133333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978902953586498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.763628691983122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870338983050847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786561743341406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599838579499596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.906848184818482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776938943894391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.849639423076923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668910256410258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.504607371794872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866065705128205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.716386217948719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.555649038461539</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.96285</t>
   </si>
   <si>
@@ -1475,7 +1481,7 @@
     <t xml:space="preserve">0.686266666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.530200000000001</t>
+    <t xml:space="preserve">0.530200000000002</t>
   </si>
   <si>
     <t xml:space="preserve">0.86665</t>
@@ -1493,7 +1499,7 @@
     <t xml:space="preserve">0.712066666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.572416666666667</t>
+    <t xml:space="preserve">0.572416666666668</t>
   </si>
   <si>
     <t xml:space="preserve">0.955316666666666</t>
@@ -1646,7 +1652,7 @@
     <t xml:space="preserve">0.739849999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.592433333333333</t>
+    <t xml:space="preserve">0.592433333333334</t>
   </si>
   <si>
     <t xml:space="preserve">0.881683333333333</t>
@@ -1709,7 +1715,7 @@
     <t xml:space="preserve">0.638666666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783316666666667</t>
+    <t xml:space="preserve">0.783316666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.676299999999999</t>
@@ -1730,7 +1736,7 @@
     <t xml:space="preserve">0.887933333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79323333333333</t>
+    <t xml:space="preserve">0.793233333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.627866666666666</t>
@@ -1739,7 +1745,7 @@
     <t xml:space="preserve">0.9205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804866666666664</t>
+    <t xml:space="preserve">0.804866666666663</t>
   </si>
   <si>
     <t xml:space="preserve">0.651083333333332</t>
@@ -1829,7 +1835,7 @@
     <t xml:space="preserve">0.823316666666666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.711099999999999</t>
+    <t xml:space="preserve">0.711099999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.579366666666667</t>
@@ -1892,7 +1898,7 @@
     <t xml:space="preserve">0.878233333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726883333333331</t>
+    <t xml:space="preserve">0.726883333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.565716666666668</t>
@@ -1901,13 +1907,13 @@
     <t xml:space="preserve">0.910883333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789216666666664</t>
+    <t xml:space="preserve">0.789216666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.62185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870316666666666</t>
+    <t xml:space="preserve">0.870316666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.754716666666664</t>
@@ -1922,7 +1928,7 @@
     <t xml:space="preserve">0.736733333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.570166666666668</t>
+    <t xml:space="preserve">0.570166666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.894816666666666</t>
@@ -1985,16 +1991,13 @@
     <t xml:space="preserve">0.769816666666664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.598933333333333</t>
+    <t xml:space="preserve">0.598933333333334</t>
   </si>
   <si>
     <t xml:space="preserve">0.9421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823983333333331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.628149999999999</t>
+    <t xml:space="preserve">0.82398333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.842233333333333</t>
@@ -2027,7 +2030,7 @@
     <t xml:space="preserve">0.908233333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80478333333333</t>
+    <t xml:space="preserve">0.804783333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.626516666666666</t>
@@ -2078,7 +2081,7 @@
     <t xml:space="preserve">0.642099999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795299999999998</t>
+    <t xml:space="preserve">0.795299999999997</t>
   </si>
   <si>
     <t xml:space="preserve">0.636866666666666</t>
@@ -2225,7 +2228,7 @@
     <t xml:space="preserve">0.834483333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.697533333333332</t>
+    <t xml:space="preserve">0.697533333333331</t>
   </si>
   <si>
     <t xml:space="preserve">0.520283333333335</t>
@@ -2297,9 +2300,6 @@
     <t xml:space="preserve">0.8686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.743266666666664</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.59735</t>
   </si>
   <si>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">0.925083333333333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553250000000001</t>
+    <t xml:space="preserve">0.55325</t>
   </si>
   <si>
     <t xml:space="preserve">0.410366666666668</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">0.583417721518987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953612479474549</t>
+    <t xml:space="preserve">0.953612479474548</t>
   </si>
   <si>
     <t xml:space="preserve">0.689449917898194</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">0.896649999999998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.724299999999999</t>
+    <t xml:space="preserve">0.724299999999998</t>
   </si>
   <si>
     <t xml:space="preserve">0.902749999999998</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">0.873583333333331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.595516666666666</t>
+    <t xml:space="preserve">0.595516666666667</t>
   </si>
   <si>
     <t xml:space="preserve">0.95615</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">0.95455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836716666666665</t>
+    <t xml:space="preserve">0.836716666666664</t>
   </si>
   <si>
     <t xml:space="preserve">0.635849999999999</t>
@@ -2708,9 +2708,6 @@
     <t xml:space="preserve">0.709733333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55535</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.886383333333333</t>
   </si>
   <si>
@@ -2771,7 +2768,7 @@
     <t xml:space="preserve">0.760583333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.604349999999999</t>
+    <t xml:space="preserve">0.60435</t>
   </si>
   <si>
     <t xml:space="preserve">0.898933333333333</t>
@@ -2786,7 +2783,7 @@
     <t xml:space="preserve">0.85255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.657249999999999</t>
+    <t xml:space="preserve">0.65725</t>
   </si>
   <si>
     <t xml:space="preserve">0.509466666666669</t>
@@ -2798,7 +2795,7 @@
     <t xml:space="preserve">0.804783333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.6233</t>
+    <t xml:space="preserve">0.623299999999999</t>
   </si>
   <si>
     <t xml:space="preserve">0.892783333333333</t>
@@ -2873,7 +2870,7 @@
     <t xml:space="preserve">0.9222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859033333333331</t>
+    <t xml:space="preserve">0.859033333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.697616666666665</t>
@@ -2993,7 +2990,7 @@
     <t xml:space="preserve">0.776616666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.597649999999999</t>
+    <t xml:space="preserve">0.59765</t>
   </si>
   <si>
     <t xml:space="preserve">0.930766666666667</t>
@@ -3011,7 +3008,7 @@
     <t xml:space="preserve">0.731549999999999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.567450000000001</t>
+    <t xml:space="preserve">0.56745</t>
   </si>
   <si>
     <t xml:space="preserve">0.882216666666666</t>
@@ -3110,6 +3107,9 @@
     <t xml:space="preserve">0.796883333333332</t>
   </si>
   <si>
+    <t xml:space="preserve">0.627533333333332</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.952016666666666</t>
   </si>
   <si>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">0.735533333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.564100000000001</t>
+    <t xml:space="preserve">0.5641</t>
   </si>
   <si>
     <t xml:space="preserve">0.895466666666667</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">0.731816666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.565733333333334</t>
+    <t xml:space="preserve">0.565733333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.932366666666667</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">0.825733333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.634133333333333</t>
+    <t xml:space="preserve">0.634133333333332</t>
   </si>
   <si>
     <t xml:space="preserve">0.92405</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">0.735133333333332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.590766666666667</t>
+    <t xml:space="preserve">0.590766666666666</t>
   </si>
   <si>
     <t xml:space="preserve">0.94395</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">0.811016666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.644716666666666</t>
+    <t xml:space="preserve">0.644716666666665</t>
   </si>
   <si>
     <t xml:space="preserve">0.859133333333333</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">0.760666666666665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.605933333333332</t>
+    <t xml:space="preserve">0.605933333333333</t>
   </si>
   <si>
     <t xml:space="preserve">0.87685</t>
@@ -3955,16 +3955,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
@@ -3972,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14">
@@ -3989,16 +3989,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15">
@@ -4006,16 +4006,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16">
@@ -4023,16 +4023,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
@@ -4040,16 +4040,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18">
@@ -4057,16 +4057,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19">
@@ -4074,16 +4074,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20">
@@ -4091,16 +4091,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21">
@@ -4108,16 +4108,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22">
@@ -4460,142 +4460,142 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22">
@@ -4872,7 +4872,7 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -4889,7 +4889,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -4897,153 +4897,153 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22">
@@ -5219,13 +5219,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -5233,13 +5233,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -5247,13 +5247,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -5261,13 +5261,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -5275,13 +5275,13 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -5289,13 +5289,13 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -5303,13 +5303,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -5317,13 +5317,13 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -5331,13 +5331,13 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -5345,13 +5345,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -5359,13 +5359,13 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -5373,13 +5373,13 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -5387,13 +5387,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -5401,13 +5401,13 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -5415,13 +5415,13 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -5429,13 +5429,13 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -5443,13 +5443,13 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -5457,13 +5457,13 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
@@ -5471,13 +5471,13 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21">
@@ -5485,13 +5485,13 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
@@ -5499,13 +5499,13 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
@@ -5513,13 +5513,13 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
@@ -5527,13 +5527,13 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -5541,13 +5541,13 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
@@ -5555,13 +5555,13 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27">
@@ -5569,13 +5569,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
@@ -5583,13 +5583,13 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
@@ -5597,13 +5597,13 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
@@ -5611,13 +5611,13 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -5625,13 +5625,13 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
@@ -5639,13 +5639,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33">
@@ -5653,13 +5653,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34">
@@ -5667,13 +5667,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
@@ -5681,13 +5681,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
@@ -5695,13 +5695,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37">
@@ -5709,13 +5709,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38">
@@ -5723,13 +5723,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39">
@@ -5737,13 +5737,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40">
@@ -5751,13 +5751,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41">
@@ -5765,13 +5765,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42">
@@ -5779,13 +5779,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43">
@@ -5793,13 +5793,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44">
@@ -5807,13 +5807,13 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45">
@@ -5821,13 +5821,13 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46">
@@ -5835,13 +5835,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47">
@@ -5849,13 +5849,13 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48">
@@ -5863,13 +5863,13 @@
         <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49">
@@ -5877,13 +5877,13 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50">
@@ -5891,13 +5891,13 @@
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51">
@@ -5905,13 +5905,13 @@
         <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52">
@@ -5919,13 +5919,13 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53">
@@ -5933,13 +5933,13 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54">
@@ -5947,13 +5947,13 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55">
@@ -5961,13 +5961,13 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56">
@@ -5975,13 +5975,13 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57">
@@ -5989,13 +5989,13 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -6003,13 +6003,13 @@
         <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59">
@@ -6017,13 +6017,13 @@
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60">
@@ -6031,13 +6031,13 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
@@ -6045,13 +6045,13 @@
         <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62">
@@ -6059,13 +6059,13 @@
         <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63">
@@ -6073,13 +6073,13 @@
         <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64">
@@ -6087,13 +6087,13 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65">
@@ -6101,13 +6101,13 @@
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66">
@@ -6115,13 +6115,13 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67">
@@ -6129,13 +6129,13 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68">
@@ -6143,13 +6143,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69">
@@ -6157,13 +6157,13 @@
         <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70">
@@ -6171,13 +6171,13 @@
         <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71">
@@ -6185,13 +6185,13 @@
         <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72">
@@ -6199,13 +6199,13 @@
         <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73">
@@ -6213,13 +6213,13 @@
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74">
@@ -6227,13 +6227,13 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75">
@@ -6241,13 +6241,13 @@
         <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76">
@@ -6255,13 +6255,13 @@
         <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77">
@@ -6269,13 +6269,13 @@
         <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78">
@@ -6283,13 +6283,13 @@
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79">
@@ -6297,13 +6297,13 @@
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80">
@@ -6311,13 +6311,13 @@
         <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81">
@@ -6325,13 +6325,13 @@
         <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82">
@@ -6339,13 +6339,13 @@
         <v>38</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83">
@@ -6353,13 +6353,13 @@
         <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84">
@@ -6367,13 +6367,13 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85">
@@ -6381,13 +6381,13 @@
         <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86">
@@ -6395,13 +6395,13 @@
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87">
@@ -6409,13 +6409,13 @@
         <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88">
@@ -6423,13 +6423,13 @@
         <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
@@ -6437,13 +6437,13 @@
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90">
@@ -6451,13 +6451,13 @@
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91">
@@ -6465,13 +6465,13 @@
         <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92">
@@ -6479,13 +6479,13 @@
         <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93">
@@ -6493,13 +6493,13 @@
         <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94">
@@ -6507,13 +6507,13 @@
         <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C94" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D94" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95">
@@ -6521,13 +6521,13 @@
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C95" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96">
@@ -6535,13 +6535,13 @@
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C96" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97">
@@ -6549,13 +6549,13 @@
         <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98">
@@ -6563,13 +6563,13 @@
         <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99">
@@ -6577,13 +6577,13 @@
         <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100">
@@ -6591,13 +6591,13 @@
         <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101">
@@ -6605,1410 +6605,1410 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B102" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C102" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D102" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B103" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C103" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D103" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B104" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C104" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B105" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C105" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D105" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B106" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D106" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B107" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C107" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B108" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C108" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D108" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B109" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C109" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D109" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B110" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C110" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D110" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B111" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C111" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D111" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B112" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C112" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B113" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C113" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D113" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B114" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C114" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D114" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B115" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C115" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B116" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C116" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D116" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B117" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C117" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D117" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B118" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C118" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D118" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B119" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C119" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D119" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B120" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C120" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D120" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B121" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C121" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D121" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B122" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C122" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D122" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B123" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C123" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B124" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C124" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D124" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B125" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C125" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D125" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B126" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C126" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D126" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B127" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C127" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D127" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B128" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C128" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D128" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B129" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C129" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D129" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B130" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C130" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D130" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B131" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C131" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D131" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B132" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C132" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D132" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B133" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C133" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D133" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B134" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C134" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D134" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B135" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C135" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D135" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B136" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C136" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B137" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C137" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D137" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B138" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C138" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D138" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B139" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C139" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D139" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C140" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D140" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B141" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C141" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D141" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C142" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D142" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C143" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D143" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C144" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D144" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B145" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C145" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D145" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B146" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C146" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D146" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B147" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C147" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D147" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B148" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C148" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D148" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B149" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C149" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D149" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B150" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C150" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D150" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B151" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C151" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D151" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B152" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C152" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D152" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B153" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C153" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D153" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C154" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D154" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B155" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C155" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D155" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B156" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C156" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D156" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B157" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C157" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D157" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B158" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C158" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D158" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B159" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C159" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D159" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B160" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C160" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D160" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B161" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C161" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D161" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B162" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C162" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D162" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B163" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C163" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D163" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B164" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C164" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D164" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B165" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C165" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D165" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B166" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C166" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D166" t="s">
-        <v>659</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B167" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C167" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D167" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B168" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C168" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D168" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B169" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C169" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D169" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B170" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C170" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D170" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B171" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C171" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D171" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C172" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D172" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B173" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C173" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D173" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B174" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C174" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D174" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B175" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C175" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D175" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B176" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C176" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D176" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B177" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C177" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D177" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B178" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C178" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D178" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B179" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C179" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D179" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B180" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C180" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D180" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B181" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C181" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D181" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B182" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C182" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D182" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B183" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C183" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D183" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B184" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C184" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D184" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B185" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C185" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D185" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B186" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C186" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D186" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B187" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C187" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D187" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B188" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C188" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D188" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B189" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C189" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D189" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B190" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C190" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D190" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B191" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C191" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D191" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B192" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C192" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D192" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B193" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C193" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D193" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B194" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C194" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D194" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B195" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C195" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D195" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B196" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C196" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D196" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B197" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C197" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D197" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B198" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C198" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D198" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B199" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C199" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D199" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B200" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C200" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D200" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B201" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C201" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="D201" t="s">
         <v>761</v>
@@ -8047,7 +8047,7 @@
         <v>792</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C204" t="s">
         <v>849</v>
@@ -8117,7 +8117,7 @@
         <v>792</v>
       </c>
       <c r="B209" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C209" t="s">
         <v>863</v>
@@ -8277,7 +8277,7 @@
         <v>896</v>
       </c>
       <c r="D220" t="s">
-        <v>897</v>
+        <v>715</v>
       </c>
     </row>
     <row r="221">
@@ -8285,13 +8285,13 @@
         <v>792</v>
       </c>
       <c r="B221" t="s">
+        <v>897</v>
+      </c>
+      <c r="C221" t="s">
         <v>898</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>899</v>
-      </c>
-      <c r="D221" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="222">
@@ -8299,13 +8299,13 @@
         <v>792</v>
       </c>
       <c r="B222" t="s">
+        <v>900</v>
+      </c>
+      <c r="C222" t="s">
         <v>901</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>902</v>
-      </c>
-      <c r="D222" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="223">
@@ -8313,13 +8313,13 @@
         <v>792</v>
       </c>
       <c r="B223" t="s">
+        <v>903</v>
+      </c>
+      <c r="C223" t="s">
         <v>904</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>905</v>
-      </c>
-      <c r="D223" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="224">
@@ -8327,13 +8327,13 @@
         <v>792</v>
       </c>
       <c r="B224" t="s">
+        <v>906</v>
+      </c>
+      <c r="C224" t="s">
         <v>907</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>908</v>
-      </c>
-      <c r="D224" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="225">
@@ -8341,13 +8341,13 @@
         <v>792</v>
       </c>
       <c r="B225" t="s">
+        <v>909</v>
+      </c>
+      <c r="C225" t="s">
         <v>910</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>911</v>
-      </c>
-      <c r="D225" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="226">
@@ -8355,13 +8355,13 @@
         <v>792</v>
       </c>
       <c r="B226" t="s">
+        <v>912</v>
+      </c>
+      <c r="C226" t="s">
         <v>913</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>914</v>
-      </c>
-      <c r="D226" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="227">
@@ -8369,13 +8369,13 @@
         <v>792</v>
       </c>
       <c r="B227" t="s">
+        <v>915</v>
+      </c>
+      <c r="C227" t="s">
         <v>916</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>917</v>
-      </c>
-      <c r="D227" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="228">
@@ -8383,13 +8383,13 @@
         <v>792</v>
       </c>
       <c r="B228" t="s">
+        <v>918</v>
+      </c>
+      <c r="C228" t="s">
         <v>919</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>920</v>
-      </c>
-      <c r="D228" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="229">
@@ -8397,13 +8397,13 @@
         <v>792</v>
       </c>
       <c r="B229" t="s">
+        <v>921</v>
+      </c>
+      <c r="C229" t="s">
         <v>922</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>923</v>
-      </c>
-      <c r="D229" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="230">
@@ -8411,13 +8411,13 @@
         <v>792</v>
       </c>
       <c r="B230" t="s">
+        <v>924</v>
+      </c>
+      <c r="C230" t="s">
         <v>925</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>926</v>
-      </c>
-      <c r="D230" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="231">
@@ -8425,13 +8425,13 @@
         <v>792</v>
       </c>
       <c r="B231" t="s">
+        <v>927</v>
+      </c>
+      <c r="C231" t="s">
         <v>928</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>929</v>
-      </c>
-      <c r="D231" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="232">
@@ -8439,13 +8439,13 @@
         <v>792</v>
       </c>
       <c r="B232" t="s">
+        <v>930</v>
+      </c>
+      <c r="C232" t="s">
         <v>931</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>932</v>
-      </c>
-      <c r="D232" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="233">
@@ -8453,13 +8453,13 @@
         <v>792</v>
       </c>
       <c r="B233" t="s">
+        <v>933</v>
+      </c>
+      <c r="C233" t="s">
         <v>934</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>935</v>
-      </c>
-      <c r="D233" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="234">
@@ -8467,13 +8467,13 @@
         <v>792</v>
       </c>
       <c r="B234" t="s">
+        <v>936</v>
+      </c>
+      <c r="C234" t="s">
         <v>937</v>
       </c>
-      <c r="C234" t="s">
-        <v>938</v>
-      </c>
       <c r="D234" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235">
@@ -8481,13 +8481,13 @@
         <v>792</v>
       </c>
       <c r="B235" t="s">
+        <v>938</v>
+      </c>
+      <c r="C235" t="s">
         <v>939</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>940</v>
-      </c>
-      <c r="D235" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="236">
@@ -8495,13 +8495,13 @@
         <v>792</v>
       </c>
       <c r="B236" t="s">
+        <v>941</v>
+      </c>
+      <c r="C236" t="s">
         <v>942</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>943</v>
-      </c>
-      <c r="D236" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="237">
@@ -8509,13 +8509,13 @@
         <v>792</v>
       </c>
       <c r="B237" t="s">
+        <v>944</v>
+      </c>
+      <c r="C237" t="s">
         <v>945</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>946</v>
-      </c>
-      <c r="D237" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="238">
@@ -8523,13 +8523,13 @@
         <v>792</v>
       </c>
       <c r="B238" t="s">
+        <v>947</v>
+      </c>
+      <c r="C238" t="s">
         <v>948</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>949</v>
-      </c>
-      <c r="D238" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="239">
@@ -8537,13 +8537,13 @@
         <v>792</v>
       </c>
       <c r="B239" t="s">
+        <v>950</v>
+      </c>
+      <c r="C239" t="s">
         <v>951</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>952</v>
-      </c>
-      <c r="D239" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="240">
@@ -8551,13 +8551,13 @@
         <v>792</v>
       </c>
       <c r="B240" t="s">
+        <v>953</v>
+      </c>
+      <c r="C240" t="s">
         <v>954</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>955</v>
-      </c>
-      <c r="D240" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="241">
@@ -8565,13 +8565,13 @@
         <v>792</v>
       </c>
       <c r="B241" t="s">
+        <v>956</v>
+      </c>
+      <c r="C241" t="s">
         <v>957</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>958</v>
-      </c>
-      <c r="D241" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="242">
@@ -8579,13 +8579,13 @@
         <v>792</v>
       </c>
       <c r="B242" t="s">
+        <v>959</v>
+      </c>
+      <c r="C242" t="s">
         <v>960</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>961</v>
-      </c>
-      <c r="D242" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="243">
@@ -8593,13 +8593,13 @@
         <v>792</v>
       </c>
       <c r="B243" t="s">
+        <v>962</v>
+      </c>
+      <c r="C243" t="s">
         <v>963</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>964</v>
-      </c>
-      <c r="D243" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="244">
@@ -8607,13 +8607,13 @@
         <v>792</v>
       </c>
       <c r="B244" t="s">
+        <v>965</v>
+      </c>
+      <c r="C244" t="s">
         <v>966</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>967</v>
-      </c>
-      <c r="D244" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="245">
@@ -8621,13 +8621,13 @@
         <v>792</v>
       </c>
       <c r="B245" t="s">
+        <v>968</v>
+      </c>
+      <c r="C245" t="s">
         <v>969</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>970</v>
-      </c>
-      <c r="D245" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="246">
@@ -8635,13 +8635,13 @@
         <v>792</v>
       </c>
       <c r="B246" t="s">
+        <v>971</v>
+      </c>
+      <c r="C246" t="s">
         <v>972</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>973</v>
-      </c>
-      <c r="D246" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="247">
@@ -8649,13 +8649,13 @@
         <v>792</v>
       </c>
       <c r="B247" t="s">
+        <v>974</v>
+      </c>
+      <c r="C247" t="s">
         <v>975</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>976</v>
-      </c>
-      <c r="D247" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="248">
@@ -8663,13 +8663,13 @@
         <v>792</v>
       </c>
       <c r="B248" t="s">
+        <v>977</v>
+      </c>
+      <c r="C248" t="s">
         <v>978</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>979</v>
-      </c>
-      <c r="D248" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="249">
@@ -8677,13 +8677,13 @@
         <v>792</v>
       </c>
       <c r="B249" t="s">
+        <v>980</v>
+      </c>
+      <c r="C249" t="s">
         <v>981</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>982</v>
-      </c>
-      <c r="D249" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="250">
@@ -8691,13 +8691,13 @@
         <v>792</v>
       </c>
       <c r="B250" t="s">
+        <v>983</v>
+      </c>
+      <c r="C250" t="s">
         <v>984</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>985</v>
-      </c>
-      <c r="D250" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="251">
@@ -8705,13 +8705,13 @@
         <v>792</v>
       </c>
       <c r="B251" t="s">
+        <v>986</v>
+      </c>
+      <c r="C251" t="s">
         <v>987</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>988</v>
-      </c>
-      <c r="D251" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="252">
@@ -8719,13 +8719,13 @@
         <v>792</v>
       </c>
       <c r="B252" t="s">
+        <v>989</v>
+      </c>
+      <c r="C252" t="s">
         <v>990</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>991</v>
-      </c>
-      <c r="D252" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="253">
@@ -8733,13 +8733,13 @@
         <v>792</v>
       </c>
       <c r="B253" t="s">
+        <v>992</v>
+      </c>
+      <c r="C253" t="s">
         <v>993</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>994</v>
-      </c>
-      <c r="D253" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="254">
@@ -8747,13 +8747,13 @@
         <v>792</v>
       </c>
       <c r="B254" t="s">
+        <v>995</v>
+      </c>
+      <c r="C254" t="s">
         <v>996</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>997</v>
-      </c>
-      <c r="D254" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="255">
@@ -8761,13 +8761,13 @@
         <v>792</v>
       </c>
       <c r="B255" t="s">
+        <v>998</v>
+      </c>
+      <c r="C255" t="s">
         <v>999</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>1000</v>
-      </c>
-      <c r="D255" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="256">
@@ -8775,13 +8775,13 @@
         <v>792</v>
       </c>
       <c r="B256" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C256" t="s">
         <v>1002</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
         <v>1003</v>
-      </c>
-      <c r="D256" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="257">
@@ -8789,13 +8789,13 @@
         <v>792</v>
       </c>
       <c r="B257" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C257" t="s">
         <v>1005</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>1006</v>
-      </c>
-      <c r="D257" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="258">
@@ -8803,13 +8803,13 @@
         <v>792</v>
       </c>
       <c r="B258" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C258" t="s">
         <v>1008</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>1009</v>
-      </c>
-      <c r="D258" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="259">
@@ -8817,13 +8817,13 @@
         <v>792</v>
       </c>
       <c r="B259" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C259" t="s">
         <v>1011</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>1012</v>
-      </c>
-      <c r="D259" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="260">
@@ -8831,13 +8831,13 @@
         <v>792</v>
       </c>
       <c r="B260" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C260" t="s">
         <v>1014</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
         <v>1015</v>
-      </c>
-      <c r="D260" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="261">
@@ -8845,13 +8845,13 @@
         <v>792</v>
       </c>
       <c r="B261" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C261" t="s">
         <v>1017</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>1018</v>
-      </c>
-      <c r="D261" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="262">
@@ -8859,13 +8859,13 @@
         <v>792</v>
       </c>
       <c r="B262" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C262" t="s">
         <v>1020</v>
       </c>
-      <c r="C262" t="s">
+      <c r="D262" t="s">
         <v>1021</v>
-      </c>
-      <c r="D262" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="263">
@@ -8873,13 +8873,13 @@
         <v>792</v>
       </c>
       <c r="B263" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C263" t="s">
         <v>1023</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>1024</v>
-      </c>
-      <c r="D263" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="264">
@@ -8887,13 +8887,13 @@
         <v>792</v>
       </c>
       <c r="B264" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C264" t="s">
         <v>1026</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
         <v>1027</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="265">
@@ -8901,13 +8901,13 @@
         <v>792</v>
       </c>
       <c r="B265" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C265" t="s">
         <v>1029</v>
       </c>
-      <c r="C265" t="s">
+      <c r="D265" t="s">
         <v>1030</v>
-      </c>
-      <c r="D265" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="266">
